--- a/2019/Glassmans/Glassmans Report.xlsx
+++ b/2019/Glassmans/Glassmans Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Glassmans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B2AD9E-F6E9-43C2-BA37-BD9AA5A1594D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878B7DC-6EFB-4FF9-A3AE-4E328FF4E2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D1ABE48B-2884-4200-ACC4-79D0F7A1DF65}"/>
   </bookViews>
@@ -2565,7 +2565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DF829F-2731-4DE3-985F-3F26B8E48CA8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>

--- a/2019/Glassmans/Glassmans Report.xlsx
+++ b/2019/Glassmans/Glassmans Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Glassmans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878B7DC-6EFB-4FF9-A3AE-4E328FF4E2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472709B-87FC-4620-A03D-CB89E4B99DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D1ABE48B-2884-4200-ACC4-79D0F7A1DF65}"/>
   </bookViews>
@@ -217,12 +217,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +225,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,7 +281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Fish Caught</a:t>
+              <a:t>Total species Caught</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -658,7 +658,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PERCENT FISH CAUGHT</a:t>
+              <a:t>PERCENT SPECIES CAUGHT</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -798,6 +798,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2C38-4313-A229-9C27A33A314E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -2419,7 +2424,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,12 +2457,12 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -2510,12 +2515,12 @@
         <f>SUM(C4)</f>
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -2537,12 +2542,12 @@
         <f>AVERAGE(C4)</f>
         <v>6</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f>SUM(E4/C5*100)</f>
         <v>100</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2565,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DF829F-2731-4DE3-985F-3F26B8E48CA8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,12 +2580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2597,12 +2602,12 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2611,18 +2616,18 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <f>SUM(A3/B8*100)</f>
         <v>100</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <f>SUM('2019'!C5)</f>
         <v>6</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f>SUM('2019'!C6)</f>
         <v>1</v>
       </c>
@@ -2640,7 +2645,7 @@
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <f>SUM(B8/B9)</f>
         <v>6</v>
       </c>
@@ -2649,7 +2654,7 @@
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
     </row>
